--- a/static/用户导入模板.xlsx
+++ b/static/用户导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375"/>
+    <workbookView windowWidth="25600" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>username</t>
   </si>
@@ -85,22 +85,40 @@
     <t>http://xx.com</t>
   </si>
   <si>
+    <t>男</t>
+  </si>
+  <si>
     <t>672228275@qq.com</t>
   </si>
   <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>正常</t>
+  </si>
+  <si>
     <t>哈哈哈</t>
   </si>
   <si>
     <t>李四</t>
   </si>
   <si>
+    <t>女</t>
+  </si>
+  <si>
     <t>462004370@qq.com</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>停用</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -160,6 +178,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -200,14 +254,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,7 +262,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,6 +270,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -231,63 +285,27 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,19 +320,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.25"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,7 +362,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,24 +392,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -380,18 +440,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -404,36 +452,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -452,24 +476,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -483,12 +495,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,6 +517,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -543,21 +564,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,88 +622,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -706,58 +718,52 @@
     <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -768,22 +774,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -793,52 +799,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1035,7 +1041,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1044,7 +1050,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -1326,21 +1332,21 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="16.6272727272727" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="5" width="15.875" customWidth="1"/>
-    <col min="6" max="6" width="23.25" customWidth="1"/>
-    <col min="7" max="7" width="19.75" customWidth="1"/>
-    <col min="8" max="8" width="15.375" customWidth="1"/>
-    <col min="9" max="9" width="20.75" customWidth="1"/>
-    <col min="11" max="11" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="15.8727272727273" customWidth="1"/>
+    <col min="6" max="6" width="23.2545454545455" customWidth="1"/>
+    <col min="7" max="7" width="19.7545454545455" customWidth="1"/>
+    <col min="8" max="8" width="15.3727272727273" customWidth="1"/>
+    <col min="9" max="9" width="20.7545454545455" customWidth="1"/>
+    <col min="11" max="11" width="12.1272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1422,11 +1428,11 @@
       <c r="D3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="5">
-        <v>1</v>
+      <c r="E3" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" s="5">
         <v>17608337777</v>
@@ -1434,31 +1440,31 @@
       <c r="H3" s="5">
         <v>1</v>
       </c>
-      <c r="I3" s="5">
-        <v>1</v>
-      </c>
-      <c r="J3" s="5">
-        <v>1</v>
+      <c r="I3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B4" s="5">
         <v>123456</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="5">
-        <v>1</v>
+      <c r="E4" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G4" s="5">
         <v>13802033333</v>
@@ -1466,14 +1472,14 @@
       <c r="H4" s="5">
         <v>1</v>
       </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5">
-        <v>1</v>
+      <c r="I4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="1:9">
+    <row r="5" ht="14.5" spans="1:9">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
